--- a/Listas/Desarrollo sustentable.xlsx
+++ b/Listas/Desarrollo sustentable.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TecAgos2023\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B2A792-A4E1-42CB-8223-62FB538EF477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756C874A-E904-4771-B94B-40DBFE4996A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
+    <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
   <si>
     <t>Nombre Completo</t>
   </si>
@@ -137,6 +138,9 @@
   </si>
   <si>
     <t>Examen U2</t>
+  </si>
+  <si>
+    <t>Examen U3</t>
   </si>
 </sst>
 </file>
@@ -1897,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F947EDC-AFA3-4A56-81D7-B4B69D63F993}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1908,10 +1912,10 @@
     <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.88671875" customWidth="1"/>
     <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="43.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1936,16 +1940,20 @@
       <c r="H1" s="7">
         <v>45197</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="2" t="s">
+      <c r="I1" s="7">
+        <v>45201</v>
+      </c>
+      <c r="J1" s="7">
+        <v>45204</v>
+      </c>
+      <c r="K1" s="7">
+        <v>45205</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1970,14 +1978,1233 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AE301C-8B1C-445C-BB68-A4B9E17EBFE6}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45208</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1987,29 +3214,17 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2019,29 +3234,17 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2051,29 +3254,17 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2083,29 +3274,17 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2115,29 +3294,17 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2145,31 +3312,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2179,29 +3334,17 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2209,31 +3352,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2243,29 +3374,17 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2275,29 +3394,17 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2307,29 +3414,17 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2339,29 +3434,17 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2371,29 +3454,17 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2403,29 +3474,17 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2435,29 +3494,17 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2467,29 +3514,17 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2499,29 +3534,17 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2531,29 +3554,17 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2563,29 +3574,17 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2595,29 +3594,17 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2627,29 +3614,17 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2659,29 +3634,17 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2691,29 +3654,17 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2723,29 +3674,17 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2755,29 +3694,17 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2787,29 +3714,17 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2819,29 +3734,17 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2851,29 +3754,17 @@
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2883,29 +3774,17 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2915,29 +3794,17 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2947,29 +3814,17 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2979,27 +3834,15 @@
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Listas/Desarrollo sustentable.xlsx
+++ b/Listas/Desarrollo sustentable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TecAgos2023\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756C874A-E904-4771-B94B-40DBFE4996A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CF63E-A0DF-4DAF-A11D-7D488908A22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -456,15 +456,15 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="53.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -508,7 +508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -550,7 +550,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -592,7 +592,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -634,7 +634,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -676,7 +676,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -718,7 +718,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -760,7 +760,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -802,7 +802,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -886,7 +886,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -928,7 +928,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -970,7 +970,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1907,15 +1907,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3151,18 +3151,18 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3172,9 +3172,15 @@
       <c r="C1" s="6">
         <v>45208</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="6">
+        <v>45209</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45211</v>
+      </c>
+      <c r="F1" s="7">
+        <v>45215</v>
+      </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -3184,7 +3190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3194,9 +3200,15 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3204,7 +3216,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3214,9 +3226,15 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3224,7 +3242,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3234,9 +3252,15 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3244,7 +3268,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3254,9 +3278,15 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3264,7 +3294,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3274,9 +3304,15 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3284,7 +3320,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3294,9 +3330,15 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3304,7 +3346,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3314,9 +3356,15 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -3324,7 +3372,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3334,9 +3382,15 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -3344,7 +3398,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3354,9 +3408,15 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3364,7 +3424,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3374,9 +3434,15 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -3384,7 +3450,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3394,9 +3460,15 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3404,7 +3476,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3414,9 +3486,15 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -3424,7 +3502,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3434,9 +3512,15 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -3444,7 +3528,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3454,9 +3538,15 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -3464,7 +3554,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3474,9 +3564,15 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -3484,7 +3580,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3494,9 +3590,15 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -3504,7 +3606,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3514,9 +3616,15 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3524,7 +3632,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3534,9 +3642,15 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3544,7 +3658,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3554,9 +3668,15 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3564,7 +3684,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3574,9 +3694,15 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3584,7 +3710,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3594,9 +3720,15 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3604,7 +3736,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3614,9 +3746,15 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -3624,7 +3762,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3634,9 +3772,15 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3644,7 +3788,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3654,9 +3798,15 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -3664,7 +3814,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3674,9 +3824,15 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -3684,7 +3840,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3694,9 +3850,15 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -3704,7 +3866,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3714,9 +3876,15 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -3724,7 +3892,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3734,9 +3902,15 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3744,7 +3918,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3754,9 +3928,15 @@
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3764,7 +3944,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3774,9 +3954,15 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -3784,7 +3970,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3794,9 +3980,15 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -3804,7 +3996,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3814,9 +4006,15 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -3824,7 +4022,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3834,9 +4032,15 @@
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>

--- a/Listas/Desarrollo sustentable.xlsx
+++ b/Listas/Desarrollo sustentable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TecAgos2023\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CF63E-A0DF-4DAF-A11D-7D488908A22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8AD4F7-BD61-4C32-AE37-ECCF608377D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>Nombre Completo</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>CARREÑO HERNANDEZ MAGALI</t>
-  </si>
-  <si>
-    <t>VILLA MENDEZ LUIS ANTONIO</t>
   </si>
   <si>
     <t>Examen U2</t>
@@ -450,21 +447,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="B1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="53.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -508,7 +505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -548,9 +545,11 @@
       <c r="M2" s="3">
         <v>1</v>
       </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -590,9 +589,11 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -632,9 +633,11 @@
       <c r="M4" s="3">
         <v>1</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -674,9 +677,11 @@
       <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -716,9 +721,11 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -758,9 +765,11 @@
       <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -800,9 +809,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -842,9 +853,11 @@
       <c r="M9" s="3">
         <v>1</v>
       </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -884,9 +897,11 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -926,9 +941,11 @@
       <c r="M11" s="3">
         <v>1</v>
       </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -968,9 +985,11 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1010,9 +1029,11 @@
       <c r="M13" s="3">
         <v>1</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1052,9 +1073,11 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1094,9 +1117,11 @@
       <c r="M15" s="3">
         <v>1</v>
       </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1136,9 +1161,11 @@
       <c r="M16" s="3">
         <v>1</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1178,9 +1205,11 @@
       <c r="M17" s="3">
         <v>1</v>
       </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1220,9 +1249,11 @@
       <c r="M18" s="3">
         <v>1</v>
       </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1262,9 +1293,11 @@
       <c r="M19" s="3">
         <v>1</v>
       </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1304,9 +1337,11 @@
       <c r="M20" s="3">
         <v>1</v>
       </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1346,9 +1381,11 @@
       <c r="M21" s="3">
         <v>1</v>
       </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1388,9 +1425,11 @@
       <c r="M22" s="3">
         <v>1</v>
       </c>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1430,9 +1469,11 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1472,9 +1513,11 @@
       <c r="M24" s="3">
         <v>1</v>
       </c>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1514,9 +1557,11 @@
       <c r="M25" s="3">
         <v>1</v>
       </c>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1556,9 +1601,11 @@
       <c r="M26" s="3">
         <v>1</v>
       </c>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1598,9 +1645,11 @@
       <c r="M27" s="3">
         <v>1</v>
       </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1640,9 +1689,11 @@
       <c r="M28" s="3">
         <v>1</v>
       </c>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1682,9 +1733,11 @@
       <c r="M29" s="3">
         <v>1</v>
       </c>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1724,9 +1777,11 @@
       <c r="M30" s="3">
         <v>1</v>
       </c>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1766,9 +1821,11 @@
       <c r="M31" s="3">
         <v>1</v>
       </c>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1808,9 +1865,11 @@
       <c r="M32" s="3">
         <v>1</v>
       </c>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1850,49 +1909,9 @@
       <c r="M33" s="3">
         <v>1</v>
       </c>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-      <c r="M34" s="3">
-        <v>1</v>
-      </c>
-      <c r="N34" s="2"/>
+      <c r="N33" s="2">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1901,21 +1920,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F947EDC-AFA3-4A56-81D7-B4B69D63F993}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,10 +1969,10 @@
         <v>45205</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1987,9 +2006,11 @@
       <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2023,9 +2044,11 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2059,9 +2082,11 @@
       <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2095,9 +2120,11 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2131,9 +2158,11 @@
       <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2167,9 +2196,11 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2203,9 +2234,11 @@
       <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2239,9 +2272,11 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2275,9 +2310,11 @@
       <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2311,9 +2348,11 @@
       <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2347,9 +2386,11 @@
       <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2383,9 +2424,11 @@
       <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2419,9 +2462,11 @@
       <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2455,9 +2500,11 @@
       <c r="K15" s="3">
         <v>1</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2491,9 +2538,11 @@
       <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2527,9 +2576,11 @@
       <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2563,9 +2614,11 @@
       <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2599,9 +2652,11 @@
       <c r="K19" s="3">
         <v>1</v>
       </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2635,9 +2690,11 @@
       <c r="K20" s="3">
         <v>1</v>
       </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2671,9 +2728,11 @@
       <c r="K21" s="3">
         <v>1</v>
       </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2707,9 +2766,11 @@
       <c r="K22" s="3">
         <v>1</v>
       </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2743,9 +2804,11 @@
       <c r="K23" s="3">
         <v>1</v>
       </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2779,9 +2842,11 @@
       <c r="K24" s="3">
         <v>1</v>
       </c>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2815,9 +2880,11 @@
       <c r="K25" s="3">
         <v>1</v>
       </c>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2851,9 +2918,11 @@
       <c r="K26" s="3">
         <v>1</v>
       </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2887,9 +2956,11 @@
       <c r="K27" s="3">
         <v>1</v>
       </c>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2923,9 +2994,11 @@
       <c r="K28" s="3">
         <v>1</v>
       </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2959,9 +3032,11 @@
       <c r="K29" s="3">
         <v>1</v>
       </c>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2995,9 +3070,11 @@
       <c r="K30" s="3">
         <v>1</v>
       </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3031,9 +3108,11 @@
       <c r="K31" s="3">
         <v>1</v>
       </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3067,9 +3146,11 @@
       <c r="K32" s="3">
         <v>1</v>
       </c>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3103,43 +3184,9 @@
       <c r="K33" s="3">
         <v>1</v>
       </c>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2"/>
+      <c r="L33" s="2">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3148,21 +3195,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AE301C-8B1C-445C-BB68-A4B9E17EBFE6}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3181,16 +3228,20 @@
       <c r="F1" s="7">
         <v>45215</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="G1" s="7">
+        <v>45216</v>
+      </c>
+      <c r="H1" s="7">
+        <v>45218</v>
+      </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3209,14 +3260,18 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3235,14 +3290,18 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3261,14 +3320,18 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3287,14 +3350,18 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3313,14 +3380,18 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3339,14 +3410,18 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3365,14 +3440,18 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3391,14 +3470,18 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3417,14 +3500,18 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3443,14 +3530,18 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3469,14 +3560,18 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3495,14 +3590,18 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3521,14 +3620,18 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3547,14 +3650,18 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3573,14 +3680,18 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3599,14 +3710,18 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3625,14 +3740,18 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3651,14 +3770,18 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3677,14 +3800,18 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3703,14 +3830,18 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3729,14 +3860,18 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3755,14 +3890,18 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3781,14 +3920,18 @@
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3807,14 +3950,18 @@
       <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3833,14 +3980,18 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3859,14 +4010,18 @@
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3885,14 +4040,18 @@
       <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3911,14 +4070,18 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3937,14 +4100,18 @@
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3963,14 +4130,18 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3978,25 +4149,29 @@
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4015,39 +4190,17 @@
       <c r="F33" s="3">
         <v>1</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Listas/Desarrollo sustentable.xlsx
+++ b/Listas/Desarrollo sustentable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TecAgos2023\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8AD4F7-BD61-4C32-AE37-ECCF608377D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010D7ACD-6BE3-46BA-9FF1-2A92E7440B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3198,7 +3198,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3234,9 +3234,15 @@
       <c r="H1" s="7">
         <v>45218</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="I1" s="7">
+        <v>45222</v>
+      </c>
+      <c r="J1" s="7">
+        <v>45223</v>
+      </c>
+      <c r="K1" s="7">
+        <v>45225</v>
+      </c>
       <c r="L1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3266,7 +3272,9 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
@@ -3296,7 +3304,9 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
@@ -3326,7 +3336,9 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
@@ -3356,7 +3368,9 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
@@ -3386,7 +3400,9 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
@@ -3416,7 +3432,9 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
@@ -3446,7 +3464,9 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
@@ -3476,7 +3496,9 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
@@ -3506,7 +3528,9 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
@@ -3536,7 +3560,9 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
@@ -3566,7 +3592,9 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
@@ -3596,7 +3624,9 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
@@ -3626,7 +3656,9 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
@@ -3656,7 +3688,9 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
@@ -3686,7 +3720,9 @@
       <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
@@ -3716,7 +3752,9 @@
       <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
@@ -3746,7 +3784,9 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
@@ -3776,7 +3816,9 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
@@ -3806,7 +3848,9 @@
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
@@ -3836,7 +3880,9 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
@@ -3866,7 +3912,9 @@
       <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
@@ -3896,7 +3944,9 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
@@ -3926,7 +3976,9 @@
       <c r="H24" s="3">
         <v>1</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
@@ -3956,7 +4008,9 @@
       <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
@@ -3986,7 +4040,9 @@
       <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="2"/>
@@ -4016,7 +4072,9 @@
       <c r="H27" s="3">
         <v>1</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
@@ -4046,7 +4104,9 @@
       <c r="H28" s="3">
         <v>1</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="2"/>
@@ -4076,7 +4136,9 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="2"/>
@@ -4106,7 +4168,9 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="2"/>
@@ -4136,7 +4200,9 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="2"/>
@@ -4166,7 +4232,9 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
@@ -4196,7 +4264,9 @@
       <c r="H33" s="3">
         <v>1</v>
       </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="2"/>

--- a/Listas/Desarrollo sustentable.xlsx
+++ b/Listas/Desarrollo sustentable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TecAgos2023\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010D7ACD-6BE3-46BA-9FF1-2A92E7440B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F17C2-1731-42D8-96EF-476CF39F5B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>Nombre Completo</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Examen U3</t>
+  </si>
+  <si>
+    <t>31/11/23</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F947EDC-AFA3-4A56-81D7-B4B69D63F993}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -3195,10 +3198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AE301C-8B1C-445C-BB68-A4B9E17EBFE6}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3207,9 +3210,10 @@
     <col min="2" max="2" width="37.88671875" customWidth="1"/>
     <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>45209</v>
       </c>
       <c r="E1" s="6">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="F1" s="7">
         <v>45215</v>
@@ -3232,7 +3236,7 @@
         <v>45216</v>
       </c>
       <c r="H1" s="7">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="I1" s="7">
         <v>45222</v>
@@ -3241,13 +3245,31 @@
         <v>45223</v>
       </c>
       <c r="K1" s="7">
-        <v>45225</v>
-      </c>
-      <c r="L1" s="2" t="s">
+        <v>45226</v>
+      </c>
+      <c r="L1" s="7">
+        <v>45229</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="7">
+        <v>45233</v>
+      </c>
+      <c r="O1" s="7">
+        <v>45236</v>
+      </c>
+      <c r="P1" s="7">
+        <v>45237</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>45240</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3275,11 +3297,33 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3307,11 +3351,33 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3339,11 +3405,33 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3371,11 +3459,33 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3403,11 +3513,33 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3435,11 +3567,33 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3467,11 +3621,33 @@
       <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3499,11 +3675,33 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3531,11 +3729,33 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3563,11 +3783,33 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3595,11 +3837,33 @@
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3627,11 +3891,33 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3659,11 +3945,33 @@
       <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3691,11 +3999,33 @@
       <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3723,11 +4053,33 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3755,11 +4107,33 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3787,11 +4161,33 @@
       <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3819,11 +4215,33 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3851,11 +4269,33 @@
       <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3883,11 +4323,33 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3915,11 +4377,33 @@
       <c r="I22" s="3">
         <v>1</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3947,11 +4431,33 @@
       <c r="I23" s="3">
         <v>1</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3979,11 +4485,33 @@
       <c r="I24" s="3">
         <v>1</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4011,11 +4539,33 @@
       <c r="I25" s="3">
         <v>1</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4043,11 +4593,33 @@
       <c r="I26" s="3">
         <v>1</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4075,11 +4647,33 @@
       <c r="I27" s="3">
         <v>1</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4107,11 +4701,33 @@
       <c r="I28" s="3">
         <v>1</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4139,11 +4755,33 @@
       <c r="I29" s="3">
         <v>1</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4171,11 +4809,33 @@
       <c r="I30" s="3">
         <v>1</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4203,11 +4863,33 @@
       <c r="I31" s="3">
         <v>1</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4235,11 +4917,33 @@
       <c r="I32" s="3">
         <v>1</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4267,9 +4971,31 @@
       <c r="I33" s="3">
         <v>1</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Listas/Desarrollo sustentable.xlsx
+++ b/Listas/Desarrollo sustentable.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TecAgos2023\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F17C2-1731-42D8-96EF-476CF39F5B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047C39BD-A549-4BA5-88EC-055342BE68A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
     <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
+    <sheet name="UNIDAD 4" sheetId="4" r:id="rId4"/>
+    <sheet name="UNIDAD 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="GY5CrhJvq3CU1yqo7aPzuFGR/qtb8fbd1Q3iJQOlV/U="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="GY5CrhJvq3CU1yqo7aPzuFGR/qtb8fbd1Q3iJQOlV/U="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="40">
   <si>
     <t>Nombre Completo</t>
   </si>
@@ -141,6 +143,12 @@
   </si>
   <si>
     <t>31/11/23</t>
+  </si>
+  <si>
+    <t>Examen U4</t>
+  </si>
+  <si>
+    <t>Examen U5</t>
   </si>
 </sst>
 </file>
@@ -453,7 +461,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -813,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -901,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -1926,7 +1934,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="D8" sqref="D8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2217,28 +2225,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2296,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2305,16 +2313,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3200,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AE301C-8B1C-445C-BB68-A4B9E17EBFE6}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3321,7 +3329,9 @@
       <c r="Q2" s="3">
         <v>1</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3375,7 +3385,9 @@
       <c r="Q3" s="3">
         <v>1</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3429,7 +3441,9 @@
       <c r="Q4" s="3">
         <v>1</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3483,7 +3497,9 @@
       <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3537,7 +3553,9 @@
       <c r="Q6" s="3">
         <v>1</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3591,7 +3609,9 @@
       <c r="Q7" s="3">
         <v>1</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3619,33 +3639,35 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3699,7 +3721,9 @@
       <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3709,7 +3733,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -3718,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -3727,33 +3751,35 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3807,7 +3833,9 @@
       <c r="Q11" s="3">
         <v>1</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3861,7 +3889,9 @@
       <c r="Q12" s="3">
         <v>1</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3915,7 +3945,9 @@
       <c r="Q13" s="3">
         <v>1</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3969,7 +4001,9 @@
       <c r="Q14" s="3">
         <v>1</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -4023,7 +4057,9 @@
       <c r="Q15" s="3">
         <v>1</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -4077,7 +4113,9 @@
       <c r="Q16" s="3">
         <v>1</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -4131,7 +4169,9 @@
       <c r="Q17" s="3">
         <v>1</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -4185,7 +4225,9 @@
       <c r="Q18" s="3">
         <v>1</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -4239,7 +4281,9 @@
       <c r="Q19" s="3">
         <v>1</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -4293,7 +4337,9 @@
       <c r="Q20" s="3">
         <v>1</v>
       </c>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -4347,7 +4393,9 @@
       <c r="Q21" s="3">
         <v>1</v>
       </c>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -4401,7 +4449,9 @@
       <c r="Q22" s="3">
         <v>1</v>
       </c>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -4455,7 +4505,9 @@
       <c r="Q23" s="3">
         <v>1</v>
       </c>
-      <c r="R23" s="2"/>
+      <c r="R23" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -4509,7 +4561,9 @@
       <c r="Q24" s="3">
         <v>1</v>
       </c>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -4563,7 +4617,9 @@
       <c r="Q25" s="3">
         <v>1</v>
       </c>
-      <c r="R25" s="2"/>
+      <c r="R25" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -4617,7 +4673,9 @@
       <c r="Q26" s="3">
         <v>1</v>
       </c>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -4671,7 +4729,9 @@
       <c r="Q27" s="3">
         <v>1</v>
       </c>
-      <c r="R27" s="2"/>
+      <c r="R27" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -4725,7 +4785,9 @@
       <c r="Q28" s="3">
         <v>1</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -4779,7 +4841,9 @@
       <c r="Q29" s="3">
         <v>1</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -4833,7 +4897,9 @@
       <c r="Q30" s="3">
         <v>1</v>
       </c>
-      <c r="R30" s="2"/>
+      <c r="R30" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -4887,7 +4953,9 @@
       <c r="Q31" s="3">
         <v>1</v>
       </c>
-      <c r="R31" s="2"/>
+      <c r="R31" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -4941,7 +5009,9 @@
       <c r="Q32" s="3">
         <v>1</v>
       </c>
-      <c r="R32" s="2"/>
+      <c r="R32" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -4995,7 +5065,2264 @@
       <c r="Q33" s="3">
         <v>1</v>
       </c>
-      <c r="R33" s="2"/>
+      <c r="R33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A5A1B6-3E49-43F6-9407-9FE6E4CBB1FF}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45243</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45244</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45246</v>
+      </c>
+      <c r="F1" s="7">
+        <v>45250</v>
+      </c>
+      <c r="G1" s="7">
+        <v>45251</v>
+      </c>
+      <c r="H1" s="7">
+        <v>45253</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD20A19-B759-4F5E-BD67-CB169541C853}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45257</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45258</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45260</v>
+      </c>
+      <c r="F1" s="7">
+        <v>45264</v>
+      </c>
+      <c r="G1" s="7">
+        <v>45265</v>
+      </c>
+      <c r="H1" s="7">
+        <v>45267</v>
+      </c>
+      <c r="I1" s="7">
+        <v>45271</v>
+      </c>
+      <c r="J1" s="7">
+        <v>45272</v>
+      </c>
+      <c r="K1" s="7">
+        <v>45274</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
